--- a/Gorcery_Loads.xlsx
+++ b/Gorcery_Loads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manav.Malhotra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F587EBE9-D992-E142-BA54-D066FACC0A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{907E9198-6509-B44F-9725-D607B8467599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23910" yWindow="1830" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>store</t>
   </si>
@@ -80,7 +83,7 @@
     <t>Brampton</t>
   </si>
   <si>
-    <t>Glenerin</t>
+    <t>Glen Erin</t>
   </si>
   <si>
     <t>Walkers Line</t>
@@ -101,18 +104,33 @@
     <t>Ponytrail</t>
   </si>
   <si>
+    <t>Brookfield</t>
+  </si>
+  <si>
+    <t>Burloak</t>
+  </si>
+  <si>
     <t>BoxGrove</t>
   </si>
   <si>
+    <t>Elizabeth St.</t>
+  </si>
+  <si>
     <t>Aurora</t>
   </si>
   <si>
     <t>Bathurst</t>
   </si>
   <si>
+    <t>Bloor (HBC)</t>
+  </si>
+  <si>
     <t>Richmond Hill</t>
   </si>
   <si>
+    <t>First CDN Place</t>
+  </si>
+  <si>
     <t>MLS</t>
   </si>
   <si>
@@ -128,6 +146,15 @@
     <t>Applewood</t>
   </si>
   <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Mount Pleasant</t>
+  </si>
+  <si>
+    <t>Ancaster</t>
+  </si>
+  <si>
     <t>Guelph</t>
   </si>
   <si>
@@ -143,10 +170,34 @@
     <t>Green Lane</t>
   </si>
   <si>
+    <t>Liberty Village</t>
+  </si>
+  <si>
     <t>Brooklin</t>
   </si>
   <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Kitchener</t>
+  </si>
+  <si>
+    <t>Meadowvale</t>
+  </si>
+  <si>
+    <t>Kleinburg</t>
+  </si>
+  <si>
     <t>Queensway</t>
+  </si>
+  <si>
+    <t>Colossus</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Voila</t>
   </si>
 </sst>
 </file>
@@ -206,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +297,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC2E469-4A36-487E-8600-382150A6B9AB}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -788,270 +839,237 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>0.9375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D17" s="2">
-        <v>0.9375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E17" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.9375</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D19" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E19" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="F19" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="D20" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="E20" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.9375</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.875</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.58333333333333337</v>
+      <c r="F22" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.60416666666666663</v>
-      </c>
+      <c r="F23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
+      <c r="C24" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F24" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I24" s="1">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.75</v>
+      <c r="C25" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.5625</v>
+      <c r="C26" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.60416666666666663</v>
+      <c r="C27" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.60416666666666663</v>
+      <c r="C28" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.625</v>
       </c>
       <c r="G28" s="2">
         <v>0.60416666666666663</v>
@@ -1059,48 +1077,262 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.58333333333333337</v>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>750</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>751</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
